--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="486">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -1473,6 +1473,15 @@
   </si>
   <si>
     <t>Default_FontFamily_TextWidget</t>
+  </si>
+  <si>
+    <t>#ffbf00</t>
+  </si>
+  <si>
+    <t>Default_LineBullet_BarWithLine</t>
+  </si>
+  <si>
+    <t>Default_LineStroke_BarWithLine</t>
   </si>
 </sst>
 </file>
@@ -1920,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU16" workbookViewId="0">
-      <selection activeCell="BB24" sqref="BB24"/>
+    <sheetView tabSelected="1" topLeftCell="AV16" workbookViewId="0">
+      <selection activeCell="BA32" sqref="BA32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1973,7 +1982,10 @@
     <col min="49" max="49" width="22.140625" customWidth="1"/>
     <col min="50" max="50" width="16" customWidth="1"/>
     <col min="51" max="51" width="22.140625" customWidth="1"/>
-    <col min="52" max="56" width="16" customWidth="1"/>
+    <col min="52" max="52" width="23" customWidth="1"/>
+    <col min="53" max="53" width="18.28515625" customWidth="1"/>
+    <col min="54" max="54" width="21" customWidth="1"/>
+    <col min="55" max="56" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="15.75" x14ac:dyDescent="0.25">
@@ -4416,8 +4428,12 @@
       <c r="BA24" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="BB24" s="3"/>
-      <c r="BC24" s="3"/>
+      <c r="BB24" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="BC24" s="3" t="s">
+        <v>484</v>
+      </c>
       <c r="BD24" s="3"/>
     </row>
     <row r="25" spans="1:56" ht="30" x14ac:dyDescent="0.25">
@@ -4578,8 +4594,12 @@
       <c r="BA25" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="BB25" s="4"/>
-      <c r="BC25" s="4"/>
+      <c r="BB25" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="BC25" s="4" t="s">
+        <v>483</v>
+      </c>
       <c r="BD25" s="4"/>
     </row>
     <row r="26" spans="1:56" x14ac:dyDescent="0.25">

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEDGE_New\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEDGE_TESTING_Frmaework\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="501">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -1482,6 +1482,51 @@
   </si>
   <si>
     <t>Default_LineStroke_BarWithLine</t>
+  </si>
+  <si>
+    <t>Data56</t>
+  </si>
+  <si>
+    <t>Data57</t>
+  </si>
+  <si>
+    <t>Data58</t>
+  </si>
+  <si>
+    <t>Data59</t>
+  </si>
+  <si>
+    <t>Data60</t>
+  </si>
+  <si>
+    <t>Data61</t>
+  </si>
+  <si>
+    <t>Default_BulletType_BarWithLine</t>
+  </si>
+  <si>
+    <t>Rectangle</t>
+  </si>
+  <si>
+    <t>Default_StrokeWidth_BarWithLine</t>
+  </si>
+  <si>
+    <t>Default_X_LabelPosition_BarWithLine</t>
+  </si>
+  <si>
+    <t>Default_GridDistance_BarWithLine</t>
+  </si>
+  <si>
+    <t>Default_Position_Card_Widget</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Default_Size_Card_Widget</t>
   </si>
 </sst>
 </file>
@@ -1927,10 +1972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD27"/>
+  <dimension ref="A1:BJ27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV16" workbookViewId="0">
-      <selection activeCell="BA32" sqref="BA32"/>
+    <sheetView tabSelected="1" topLeftCell="AN16" workbookViewId="0">
+      <selection activeCell="AR25" sqref="AR25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1985,10 +2030,10 @@
     <col min="52" max="52" width="23" customWidth="1"/>
     <col min="53" max="53" width="18.28515625" customWidth="1"/>
     <col min="54" max="54" width="21" customWidth="1"/>
-    <col min="55" max="56" width="16" customWidth="1"/>
+    <col min="55" max="62" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2157,8 +2202,26 @@
       <c r="BD1" s="5" t="s">
         <v>479</v>
       </c>
+      <c r="BE1" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="BF1" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="BG1" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="BH1" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="BI1" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="BJ1" s="5" t="s">
+        <v>491</v>
+      </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -2223,8 +2286,14 @@
       <c r="BB2" s="3"/>
       <c r="BC2" s="3"/>
       <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
+      <c r="BJ2" s="3"/>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>425</v>
@@ -2287,8 +2356,14 @@
       <c r="BB3" s="4"/>
       <c r="BC3" s="4"/>
       <c r="BD3" s="4"/>
+      <c r="BE3" s="4"/>
+      <c r="BF3" s="4"/>
+      <c r="BG3" s="4"/>
+      <c r="BH3" s="4"/>
+      <c r="BI3" s="4"/>
+      <c r="BJ3" s="4"/>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -2369,8 +2444,14 @@
       <c r="BB4" s="3"/>
       <c r="BC4" s="3"/>
       <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
+      <c r="BJ4" s="3"/>
     </row>
-    <row r="5" spans="1:56" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:62" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>45</v>
@@ -2449,8 +2530,14 @@
       <c r="BB5" s="4"/>
       <c r="BC5" s="4"/>
       <c r="BD5" s="4"/>
+      <c r="BE5" s="4"/>
+      <c r="BF5" s="4"/>
+      <c r="BG5" s="4"/>
+      <c r="BH5" s="4"/>
+      <c r="BI5" s="4"/>
+      <c r="BJ5" s="4"/>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>90</v>
       </c>
@@ -2525,8 +2612,14 @@
       <c r="BB6" s="3"/>
       <c r="BC6" s="3"/>
       <c r="BD6" s="3"/>
+      <c r="BE6" s="3"/>
+      <c r="BF6" s="3"/>
+      <c r="BG6" s="3"/>
+      <c r="BH6" s="3"/>
+      <c r="BI6" s="3"/>
+      <c r="BJ6" s="3"/>
     </row>
-    <row r="7" spans="1:56" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:62" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>73</v>
@@ -2599,8 +2692,14 @@
       <c r="BB7" s="4"/>
       <c r="BC7" s="4"/>
       <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="4"/>
+      <c r="BG7" s="4"/>
+      <c r="BH7" s="4"/>
+      <c r="BI7" s="4"/>
+      <c r="BJ7" s="4"/>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>89</v>
       </c>
@@ -2681,8 +2780,14 @@
       <c r="BB8" s="3"/>
       <c r="BC8" s="3"/>
       <c r="BD8" s="3"/>
+      <c r="BE8" s="3"/>
+      <c r="BF8" s="3"/>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="3"/>
+      <c r="BI8" s="3"/>
+      <c r="BJ8" s="3"/>
     </row>
-    <row r="9" spans="1:56" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:62" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>92</v>
@@ -2761,8 +2866,14 @@
       <c r="BB9" s="4"/>
       <c r="BC9" s="4"/>
       <c r="BD9" s="4"/>
+      <c r="BE9" s="4"/>
+      <c r="BF9" s="4"/>
+      <c r="BG9" s="4"/>
+      <c r="BH9" s="4"/>
+      <c r="BI9" s="4"/>
+      <c r="BJ9" s="4"/>
     </row>
-    <row r="10" spans="1:56" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:62" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>107</v>
       </c>
@@ -2903,8 +3014,14 @@
       <c r="BB10" s="3"/>
       <c r="BC10" s="3"/>
       <c r="BD10" s="3"/>
+      <c r="BE10" s="3"/>
+      <c r="BF10" s="3"/>
+      <c r="BG10" s="3"/>
+      <c r="BH10" s="3"/>
+      <c r="BI10" s="3"/>
+      <c r="BJ10" s="3"/>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>189</v>
@@ -3043,8 +3160,14 @@
       <c r="BB11" s="4"/>
       <c r="BC11" s="4"/>
       <c r="BD11" s="4"/>
+      <c r="BE11" s="4"/>
+      <c r="BF11" s="4"/>
+      <c r="BG11" s="4"/>
+      <c r="BH11" s="4"/>
+      <c r="BI11" s="4"/>
+      <c r="BJ11" s="4"/>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>207</v>
       </c>
@@ -3133,8 +3256,14 @@
       <c r="BB12" s="3"/>
       <c r="BC12" s="3"/>
       <c r="BD12" s="3"/>
+      <c r="BE12" s="3"/>
+      <c r="BF12" s="3"/>
+      <c r="BG12" s="3"/>
+      <c r="BH12" s="3"/>
+      <c r="BI12" s="3"/>
+      <c r="BJ12" s="3"/>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>212</v>
@@ -3221,8 +3350,14 @@
       <c r="BB13" s="4"/>
       <c r="BC13" s="4"/>
       <c r="BD13" s="4"/>
+      <c r="BE13" s="4"/>
+      <c r="BF13" s="4"/>
+      <c r="BG13" s="4"/>
+      <c r="BH13" s="4"/>
+      <c r="BI13" s="4"/>
+      <c r="BJ13" s="4"/>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>217</v>
       </c>
@@ -3341,8 +3476,14 @@
       <c r="BB14" s="3"/>
       <c r="BC14" s="3"/>
       <c r="BD14" s="3"/>
+      <c r="BE14" s="3"/>
+      <c r="BF14" s="3"/>
+      <c r="BG14" s="3"/>
+      <c r="BH14" s="3"/>
+      <c r="BI14" s="3"/>
+      <c r="BJ14" s="3"/>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>212</v>
@@ -3459,8 +3600,14 @@
       <c r="BB15" s="4"/>
       <c r="BC15" s="4"/>
       <c r="BD15" s="4"/>
+      <c r="BE15" s="4"/>
+      <c r="BF15" s="4"/>
+      <c r="BG15" s="4"/>
+      <c r="BH15" s="4"/>
+      <c r="BI15" s="4"/>
+      <c r="BJ15" s="4"/>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>267</v>
       </c>
@@ -3555,8 +3702,14 @@
       <c r="BB16" s="3"/>
       <c r="BC16" s="3"/>
       <c r="BD16" s="3"/>
+      <c r="BE16" s="3"/>
+      <c r="BF16" s="3"/>
+      <c r="BG16" s="3"/>
+      <c r="BH16" s="3"/>
+      <c r="BI16" s="3"/>
+      <c r="BJ16" s="3"/>
     </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>385</v>
@@ -3649,8 +3802,14 @@
       <c r="BB17" s="4"/>
       <c r="BC17" s="4"/>
       <c r="BD17" s="4"/>
+      <c r="BE17" s="4"/>
+      <c r="BF17" s="4"/>
+      <c r="BG17" s="4"/>
+      <c r="BH17" s="4"/>
+      <c r="BI17" s="4"/>
+      <c r="BJ17" s="4"/>
     </row>
-    <row r="18" spans="1:56" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:62" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>310</v>
       </c>
@@ -3747,8 +3906,14 @@
       <c r="BB18" s="3"/>
       <c r="BC18" s="3"/>
       <c r="BD18" s="3"/>
+      <c r="BE18" s="3"/>
+      <c r="BF18" s="3"/>
+      <c r="BG18" s="3"/>
+      <c r="BH18" s="3"/>
+      <c r="BI18" s="3"/>
+      <c r="BJ18" s="3"/>
     </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>212</v>
@@ -3843,8 +4008,14 @@
       <c r="BB19" s="4"/>
       <c r="BC19" s="4"/>
       <c r="BD19" s="4"/>
+      <c r="BE19" s="4"/>
+      <c r="BF19" s="4"/>
+      <c r="BG19" s="4"/>
+      <c r="BH19" s="4"/>
+      <c r="BI19" s="4"/>
+      <c r="BJ19" s="4"/>
     </row>
-    <row r="20" spans="1:56" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:62" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>311</v>
       </c>
@@ -3959,8 +4130,14 @@
       <c r="BB20" s="3"/>
       <c r="BC20" s="3"/>
       <c r="BD20" s="3"/>
+      <c r="BE20" s="3"/>
+      <c r="BF20" s="3"/>
+      <c r="BG20" s="3"/>
+      <c r="BH20" s="3"/>
+      <c r="BI20" s="3"/>
+      <c r="BJ20" s="3"/>
     </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>212</v>
@@ -4073,8 +4250,14 @@
       <c r="BB21" s="4"/>
       <c r="BC21" s="4"/>
       <c r="BD21" s="4"/>
+      <c r="BE21" s="4"/>
+      <c r="BF21" s="4"/>
+      <c r="BG21" s="4"/>
+      <c r="BH21" s="4"/>
+      <c r="BI21" s="4"/>
+      <c r="BJ21" s="4"/>
     </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>357</v>
       </c>
@@ -4171,8 +4354,14 @@
       <c r="BB22" s="3"/>
       <c r="BC22" s="3"/>
       <c r="BD22" s="3"/>
+      <c r="BE22" s="3"/>
+      <c r="BF22" s="3"/>
+      <c r="BG22" s="3"/>
+      <c r="BH22" s="3"/>
+      <c r="BI22" s="3"/>
+      <c r="BJ22" s="3"/>
     </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>212</v>
@@ -4267,8 +4456,14 @@
       <c r="BB23" s="4"/>
       <c r="BC23" s="4"/>
       <c r="BD23" s="4"/>
+      <c r="BE23" s="4"/>
+      <c r="BF23" s="4"/>
+      <c r="BG23" s="4"/>
+      <c r="BH23" s="4"/>
+      <c r="BI23" s="4"/>
+      <c r="BJ23" s="4"/>
     </row>
-    <row r="24" spans="1:56" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:62" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>433</v>
       </c>
@@ -4434,9 +4629,27 @@
       <c r="BC24" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="BD24" s="3"/>
+      <c r="BD24" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="BE24" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="BF24" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="BG24" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="BH24" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="BI24" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="BJ24" s="3"/>
     </row>
-    <row r="25" spans="1:56" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:62" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>407</v>
@@ -4600,9 +4813,27 @@
       <c r="BC25" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="BD25" s="4"/>
+      <c r="BD25" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="BE25" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="BF25" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="BG25" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="BH25" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="BI25" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="BJ25" s="4"/>
     </row>
-    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -4659,8 +4890,14 @@
       <c r="BB26" s="3"/>
       <c r="BC26" s="3"/>
       <c r="BD26" s="3"/>
+      <c r="BE26" s="3"/>
+      <c r="BF26" s="3"/>
+      <c r="BG26" s="3"/>
+      <c r="BH26" s="3"/>
+      <c r="BI26" s="3"/>
+      <c r="BJ26" s="3"/>
     </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -4717,6 +4954,12 @@
       <c r="BB27" s="4"/>
       <c r="BC27" s="4"/>
       <c r="BD27" s="4"/>
+      <c r="BE27" s="4"/>
+      <c r="BF27" s="4"/>
+      <c r="BG27" s="4"/>
+      <c r="BH27" s="4"/>
+      <c r="BI27" s="4"/>
+      <c r="BJ27" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="504">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -1527,6 +1527,15 @@
   </si>
   <si>
     <t>Default_Size_Card_Widget</t>
+  </si>
+  <si>
+    <t>Default_Legend_Position</t>
+  </si>
+  <si>
+    <t>Bottom</t>
+  </si>
+  <si>
+    <t>Default_Legend_FontSize</t>
   </si>
 </sst>
 </file>
@@ -1972,10 +1981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BJ27"/>
+  <dimension ref="A1:BK27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN16" workbookViewId="0">
-      <selection activeCell="AR25" sqref="AR25"/>
+    <sheetView tabSelected="1" topLeftCell="BA16" workbookViewId="0">
+      <selection activeCell="BK32" sqref="BK32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2030,10 +2039,10 @@
     <col min="52" max="52" width="23" customWidth="1"/>
     <col min="53" max="53" width="18.28515625" customWidth="1"/>
     <col min="54" max="54" width="21" customWidth="1"/>
-    <col min="55" max="62" width="16" customWidth="1"/>
+    <col min="55" max="63" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2220,8 +2229,11 @@
       <c r="BJ1" s="5" t="s">
         <v>491</v>
       </c>
+      <c r="BK1" s="5" t="s">
+        <v>491</v>
+      </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -2292,8 +2304,9 @@
       <c r="BH2" s="3"/>
       <c r="BI2" s="3"/>
       <c r="BJ2" s="3"/>
+      <c r="BK2" s="3"/>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>425</v>
@@ -2362,8 +2375,9 @@
       <c r="BH3" s="4"/>
       <c r="BI3" s="4"/>
       <c r="BJ3" s="4"/>
+      <c r="BK3" s="4"/>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -2450,8 +2464,9 @@
       <c r="BH4" s="3"/>
       <c r="BI4" s="3"/>
       <c r="BJ4" s="3"/>
+      <c r="BK4" s="3"/>
     </row>
-    <row r="5" spans="1:62" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:63" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>45</v>
@@ -2536,8 +2551,9 @@
       <c r="BH5" s="4"/>
       <c r="BI5" s="4"/>
       <c r="BJ5" s="4"/>
+      <c r="BK5" s="4"/>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>90</v>
       </c>
@@ -2618,8 +2634,9 @@
       <c r="BH6" s="3"/>
       <c r="BI6" s="3"/>
       <c r="BJ6" s="3"/>
+      <c r="BK6" s="3"/>
     </row>
-    <row r="7" spans="1:62" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:63" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>73</v>
@@ -2698,8 +2715,9 @@
       <c r="BH7" s="4"/>
       <c r="BI7" s="4"/>
       <c r="BJ7" s="4"/>
+      <c r="BK7" s="4"/>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>89</v>
       </c>
@@ -2786,8 +2804,9 @@
       <c r="BH8" s="3"/>
       <c r="BI8" s="3"/>
       <c r="BJ8" s="3"/>
+      <c r="BK8" s="3"/>
     </row>
-    <row r="9" spans="1:62" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:63" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>92</v>
@@ -2872,8 +2891,9 @@
       <c r="BH9" s="4"/>
       <c r="BI9" s="4"/>
       <c r="BJ9" s="4"/>
+      <c r="BK9" s="4"/>
     </row>
-    <row r="10" spans="1:62" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:63" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>107</v>
       </c>
@@ -3020,8 +3040,9 @@
       <c r="BH10" s="3"/>
       <c r="BI10" s="3"/>
       <c r="BJ10" s="3"/>
+      <c r="BK10" s="3"/>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>189</v>
@@ -3166,8 +3187,9 @@
       <c r="BH11" s="4"/>
       <c r="BI11" s="4"/>
       <c r="BJ11" s="4"/>
+      <c r="BK11" s="4"/>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>207</v>
       </c>
@@ -3262,8 +3284,9 @@
       <c r="BH12" s="3"/>
       <c r="BI12" s="3"/>
       <c r="BJ12" s="3"/>
+      <c r="BK12" s="3"/>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>212</v>
@@ -3356,8 +3379,9 @@
       <c r="BH13" s="4"/>
       <c r="BI13" s="4"/>
       <c r="BJ13" s="4"/>
+      <c r="BK13" s="4"/>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>217</v>
       </c>
@@ -3482,8 +3506,9 @@
       <c r="BH14" s="3"/>
       <c r="BI14" s="3"/>
       <c r="BJ14" s="3"/>
+      <c r="BK14" s="3"/>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>212</v>
@@ -3606,8 +3631,9 @@
       <c r="BH15" s="4"/>
       <c r="BI15" s="4"/>
       <c r="BJ15" s="4"/>
+      <c r="BK15" s="4"/>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>267</v>
       </c>
@@ -3708,8 +3734,9 @@
       <c r="BH16" s="3"/>
       <c r="BI16" s="3"/>
       <c r="BJ16" s="3"/>
+      <c r="BK16" s="3"/>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>385</v>
@@ -3808,8 +3835,9 @@
       <c r="BH17" s="4"/>
       <c r="BI17" s="4"/>
       <c r="BJ17" s="4"/>
+      <c r="BK17" s="4"/>
     </row>
-    <row r="18" spans="1:62" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:63" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>310</v>
       </c>
@@ -3912,8 +3940,9 @@
       <c r="BH18" s="3"/>
       <c r="BI18" s="3"/>
       <c r="BJ18" s="3"/>
+      <c r="BK18" s="3"/>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>212</v>
@@ -4014,8 +4043,9 @@
       <c r="BH19" s="4"/>
       <c r="BI19" s="4"/>
       <c r="BJ19" s="4"/>
+      <c r="BK19" s="4"/>
     </row>
-    <row r="20" spans="1:62" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:63" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>311</v>
       </c>
@@ -4136,8 +4166,9 @@
       <c r="BH20" s="3"/>
       <c r="BI20" s="3"/>
       <c r="BJ20" s="3"/>
+      <c r="BK20" s="3"/>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>212</v>
@@ -4256,8 +4287,9 @@
       <c r="BH21" s="4"/>
       <c r="BI21" s="4"/>
       <c r="BJ21" s="4"/>
+      <c r="BK21" s="4"/>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>357</v>
       </c>
@@ -4360,8 +4392,9 @@
       <c r="BH22" s="3"/>
       <c r="BI22" s="3"/>
       <c r="BJ22" s="3"/>
+      <c r="BK22" s="3"/>
     </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>212</v>
@@ -4462,8 +4495,9 @@
       <c r="BH23" s="4"/>
       <c r="BI23" s="4"/>
       <c r="BJ23" s="4"/>
+      <c r="BK23" s="4"/>
     </row>
-    <row r="24" spans="1:62" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:63" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>433</v>
       </c>
@@ -4647,9 +4681,14 @@
       <c r="BI24" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="BJ24" s="3"/>
+      <c r="BJ24" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="BK24" s="3" t="s">
+        <v>503</v>
+      </c>
     </row>
-    <row r="25" spans="1:62" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:63" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>407</v>
@@ -4831,9 +4870,14 @@
       <c r="BI25" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="BJ25" s="4"/>
+      <c r="BJ25" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="BK25" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -4896,8 +4940,9 @@
       <c r="BH26" s="3"/>
       <c r="BI26" s="3"/>
       <c r="BJ26" s="3"/>
+      <c r="BK26" s="3"/>
     </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -4960,6 +5005,7 @@
       <c r="BH27" s="4"/>
       <c r="BI27" s="4"/>
       <c r="BJ27" s="4"/>
+      <c r="BK27" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="516">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -290,9 +290,6 @@
     <t xml:space="preserve">Digitalising the text inside images </t>
   </si>
   <si>
-    <t>An automated process of translating large volumes of unstructured text into quantitative data to uncover insights , trends, patterns and classify the text based on historical learning</t>
-  </si>
-  <si>
     <t>DataAnalytics</t>
   </si>
   <si>
@@ -1536,6 +1533,45 @@
   </si>
   <si>
     <t>Default_Legend_FontSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extraction of actionable Insights and Trends </t>
+  </si>
+  <si>
+    <t>Grouped_And_Sorted</t>
+  </si>
+  <si>
+    <t>Outside</t>
+  </si>
+  <si>
+    <t>DefaultPositionValue_DataLabel</t>
+  </si>
+  <si>
+    <t>KPI_CARD</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>DefaultPeriod_Value</t>
+  </si>
+  <si>
+    <t>DefaultPeriod_CountValue</t>
+  </si>
+  <si>
+    <t>Heat_Map_Legend</t>
+  </si>
+  <si>
+    <t>Default_Color_Range_Input1_Color</t>
+  </si>
+  <si>
+    <t>Default_Color_Range_Input2_Color</t>
+  </si>
+  <si>
+    <t>#fffb77</t>
+  </si>
+  <si>
+    <t>#fe131a</t>
   </si>
 </sst>
 </file>
@@ -1981,21 +2017,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK27"/>
+  <dimension ref="A1:BK31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA16" workbookViewId="0">
-      <selection activeCell="BK32" sqref="BK32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="30.140625" customWidth="1"/>
     <col min="4" max="4" width="29.28515625" customWidth="1"/>
     <col min="5" max="5" width="33.5703125" customWidth="1"/>
     <col min="6" max="6" width="29.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
     <col min="8" max="8" width="27.140625" customWidth="1"/>
     <col min="9" max="9" width="28.5703125" customWidth="1"/>
     <col min="10" max="11" width="24.7109375" customWidth="1"/>
@@ -2191,46 +2227,46 @@
         <v>58</v>
       </c>
       <c r="AX1" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="AY1" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BA1" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BB1" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BC1" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="BD1" s="5" t="s">
-        <v>479</v>
-      </c>
       <c r="BE1" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="BF1" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BG1" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="BG1" s="5" t="s">
+      <c r="BH1" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BI1" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="BJ1" s="5" t="s">
-        <v>491</v>
-      </c>
       <c r="BK1" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.25">
@@ -2244,7 +2280,7 @@
         <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -2309,13 +2345,13 @@
     <row r="3" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>426</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -2555,7 +2591,7 @@
     </row>
     <row r="6" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>76</v>
@@ -2648,7 +2684,7 @@
         <v>79</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>88</v>
+        <v>503</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>82</v>
@@ -2719,40 +2755,40 @@
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -2809,37 +2845,37 @@
     <row r="9" spans="1:63" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>72</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K9" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>381</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>382</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -2895,130 +2931,130 @@
     </row>
     <row r="10" spans="1:63" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="W10" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="X10" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="Y10" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="Y10" s="3" t="s">
+      <c r="Z10" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="Z10" s="3" t="s">
+      <c r="AA10" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="AA10" s="3" t="s">
+      <c r="AB10" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="AB10" s="3" t="s">
+      <c r="AC10" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="AC10" s="3" t="s">
+      <c r="AD10" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="AD10" s="3" t="s">
+      <c r="AE10" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="AE10" s="3" t="s">
+      <c r="AF10" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="AF10" s="3" t="s">
+      <c r="AG10" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="AG10" s="3" t="s">
+      <c r="AH10" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="AH10" s="3" t="s">
+      <c r="AI10" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="AI10" s="3" t="s">
+      <c r="AJ10" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="AJ10" s="3" t="s">
+      <c r="AK10" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="AK10" s="3" t="s">
+      <c r="AL10" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="AL10" s="3" t="s">
+      <c r="AM10" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="AM10" s="3" t="s">
+      <c r="AN10" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="AN10" s="3" t="s">
+      <c r="AO10" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="AO10" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="AP10" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AQ10" s="3"/>
       <c r="AR10" s="3"/>
@@ -3045,127 +3081,127 @@
     <row r="11" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AD11" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF11" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AG11" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AH11" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AI11" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AJ11" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AK11" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AL11" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AM11" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AN11" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AO11" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AP11" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AQ11" s="4"/>
       <c r="AR11" s="4"/>
@@ -3191,52 +3227,52 @@
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H12" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="J12" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -3289,49 +3325,49 @@
     <row r="13" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>265</v>
-      </c>
       <c r="F13" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>72</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M13" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="N13" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="N13" s="4" t="s">
-        <v>205</v>
-      </c>
       <c r="O13" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -3383,97 +3419,97 @@
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="H14" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="K14" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M14" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>231</v>
-      </c>
       <c r="O14" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>238</v>
-      </c>
       <c r="S14" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="V14" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="W14" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>248</v>
-      </c>
       <c r="X14" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y14" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>253</v>
-      </c>
       <c r="AA14" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AB14" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC14" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="AC14" s="3" t="s">
-        <v>258</v>
-      </c>
       <c r="AD14" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AE14" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
@@ -3511,94 +3547,94 @@
     <row r="15" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I15" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>224</v>
-      </c>
       <c r="K15" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L15" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="M15" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="M15" s="4" t="s">
-        <v>229</v>
-      </c>
       <c r="N15" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="O15" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="P15" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P15" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="Q15" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V15" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="W15" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="W15" s="4" t="s">
-        <v>250</v>
-      </c>
       <c r="X15" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z15" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC15" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AD15" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AE15" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
@@ -3635,61 +3671,61 @@
     </row>
     <row r="16" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M16" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="N16" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="N16" s="3" t="s">
-        <v>283</v>
-      </c>
       <c r="O16" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="P16" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="Q16" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="Q16" s="3" t="s">
-        <v>253</v>
-      </c>
       <c r="R16" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="S16" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>287</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -3739,58 +3775,58 @@
     <row r="17" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="J17" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K17" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="L17" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="L17" s="4" t="s">
-        <v>279</v>
-      </c>
       <c r="M17" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N17" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q17" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="O17" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>285</v>
-      </c>
       <c r="R17" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
@@ -3839,64 +3875,64 @@
     </row>
     <row r="18" spans="1:63" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="F18" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>289</v>
-      </c>
       <c r="I18" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>292</v>
-      </c>
       <c r="K18" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q18" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="R18" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>252</v>
-      </c>
       <c r="S18" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
@@ -3945,61 +3981,61 @@
     <row r="19" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>342</v>
-      </c>
       <c r="F19" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
@@ -4047,91 +4083,91 @@
     </row>
     <row r="20" spans="1:63" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="D20" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="H20" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="R20" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="S20" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="S20" s="3" t="s">
+      <c r="T20" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>333</v>
-      </c>
       <c r="U20" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="V20" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="V20" s="3" t="s">
+      <c r="W20" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>337</v>
-      </c>
       <c r="X20" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y20" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>340</v>
-      </c>
       <c r="Z20" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AB20" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC20" s="3" t="s">
         <v>355</v>
-      </c>
-      <c r="AC20" s="3" t="s">
-        <v>356</v>
       </c>
       <c r="AD20" s="1"/>
       <c r="AE20" s="3"/>
@@ -4171,88 +4207,88 @@
     <row r="21" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>348</v>
-      </c>
       <c r="F21" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="U21" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="V21" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="W21" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Y21" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z21" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AB21" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AC21" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
@@ -4291,64 +4327,64 @@
     </row>
     <row r="22" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="H22" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J22" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>365</v>
-      </c>
       <c r="L22" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="N22" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>370</v>
-      </c>
       <c r="O22" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="R22" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="S22" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>379</v>
-      </c>
       <c r="T22" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
@@ -4397,61 +4433,61 @@
     <row r="23" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>348</v>
-      </c>
       <c r="F23" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="S23" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
@@ -4499,235 +4535,235 @@
     </row>
     <row r="24" spans="1:63" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="AB24" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="W24" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="X24" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="Y24" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="Z24" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="AA24" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="AB24" s="3" t="s">
+      <c r="AC24" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="AC24" s="1" t="s">
+      <c r="AD24" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="AD24" s="1" t="s">
-        <v>436</v>
-      </c>
       <c r="AE24" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="AF24" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="AF24" s="3" t="s">
-        <v>439</v>
-      </c>
       <c r="AG24" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="AH24" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="AH24" s="3" t="s">
-        <v>442</v>
-      </c>
       <c r="AI24" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AJ24" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="AK24" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="AK24" s="3" t="s">
+      <c r="AL24" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="AL24" s="3" t="s">
-        <v>449</v>
-      </c>
       <c r="AM24" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AN24" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AO24" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="AP24" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="AP24" s="3" t="s">
+      <c r="AQ24" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="AQ24" s="3" t="s">
+      <c r="AR24" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="AR24" s="3" t="s">
-        <v>458</v>
-      </c>
       <c r="AS24" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="AT24" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="AT24" s="3" t="s">
+      <c r="AU24" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="AU24" s="3" t="s">
-        <v>463</v>
-      </c>
       <c r="AV24" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AW24" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="AX24" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="AX24" s="3" t="s">
-        <v>469</v>
-      </c>
       <c r="AY24" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AZ24" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BA24" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="BB24" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="BC24" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="BD24" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="BE24" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="BF24" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="BF24" s="3" t="s">
+      <c r="BG24" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="BG24" s="3" t="s">
+      <c r="BH24" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="BH24" s="3" t="s">
-        <v>497</v>
-      </c>
       <c r="BI24" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="BJ24" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="BJ24" s="3" t="s">
-        <v>501</v>
-      </c>
       <c r="BK24" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="25" spans="1:63" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>413</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>414</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K25" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="L25" s="4" t="s">
         <v>415</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>416</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>72</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O25" s="4" t="s">
         <v>61</v>
@@ -4739,147 +4775,151 @@
         <v>72</v>
       </c>
       <c r="R25" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="S25" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="S25" s="4" t="s">
+      <c r="T25" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="T25" s="4" t="s">
+      <c r="U25" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="U25" s="4" t="s">
+      <c r="V25" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="V25" s="4" t="s">
+      <c r="W25" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="W25" s="4" t="s">
-        <v>423</v>
-      </c>
       <c r="X25" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Y25" s="4" t="s">
         <v>72</v>
       </c>
       <c r="Z25" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AA25" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB25" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AC25" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AD25" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AE25" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AF25" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG25" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AH25" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AI25" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="AJ25" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="AJ25" s="4" t="s">
-        <v>446</v>
-      </c>
       <c r="AK25" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AL25" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AM25" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AN25" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AO25" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AP25" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AQ25" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AR25" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="AS25" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="AS25" s="4" t="s">
-        <v>460</v>
-      </c>
       <c r="AT25" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="AU25" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="AU25" s="4" t="s">
-        <v>465</v>
-      </c>
       <c r="AV25" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AW25" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AX25" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AY25" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AZ25" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BA25" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="BB25" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="BC25" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="BD25" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="BE25" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BF25" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="BG25" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BH25" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="BI25" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="BI25" s="4" t="s">
-        <v>499</v>
-      </c>
       <c r="BJ25" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="BK25" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="26" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
+    <row r="26" spans="1:63" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>506</v>
+      </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -4944,7 +4984,9 @@
     </row>
     <row r="27" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>505</v>
+      </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="7"/>
@@ -5007,6 +5049,286 @@
       <c r="BJ27" s="4"/>
       <c r="BK27" s="4"/>
     </row>
+    <row r="28" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3"/>
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="3"/>
+      <c r="BA28" s="3"/>
+      <c r="BB28" s="3"/>
+      <c r="BC28" s="3"/>
+      <c r="BD28" s="3"/>
+      <c r="BE28" s="3"/>
+      <c r="BF28" s="3"/>
+      <c r="BG28" s="3"/>
+      <c r="BH28" s="3"/>
+      <c r="BI28" s="3"/>
+      <c r="BJ28" s="3"/>
+      <c r="BK28" s="3"/>
+    </row>
+    <row r="29" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="4"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="4"/>
+      <c r="AO29" s="4"/>
+      <c r="AP29" s="4"/>
+      <c r="AQ29" s="4"/>
+      <c r="AR29" s="4"/>
+      <c r="AS29" s="4"/>
+      <c r="AT29" s="4"/>
+      <c r="AU29" s="4"/>
+      <c r="AV29" s="4"/>
+      <c r="AW29" s="4"/>
+      <c r="AX29" s="4"/>
+      <c r="AY29" s="4"/>
+      <c r="AZ29" s="4"/>
+      <c r="BA29" s="4"/>
+      <c r="BB29" s="4"/>
+      <c r="BC29" s="4"/>
+      <c r="BD29" s="4"/>
+      <c r="BE29" s="4"/>
+      <c r="BF29" s="4"/>
+      <c r="BG29" s="4"/>
+      <c r="BH29" s="4"/>
+      <c r="BI29" s="4"/>
+      <c r="BJ29" s="4"/>
+      <c r="BK29" s="4"/>
+    </row>
+    <row r="30" spans="1:63" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="3"/>
+      <c r="AR30" s="3"/>
+      <c r="AS30" s="3"/>
+      <c r="AT30" s="3"/>
+      <c r="AU30" s="3"/>
+      <c r="AV30" s="3"/>
+      <c r="AW30" s="3"/>
+      <c r="AX30" s="3"/>
+      <c r="AY30" s="3"/>
+      <c r="AZ30" s="3"/>
+      <c r="BA30" s="3"/>
+      <c r="BB30" s="3"/>
+      <c r="BC30" s="3"/>
+      <c r="BD30" s="3"/>
+      <c r="BE30" s="3"/>
+      <c r="BF30" s="3"/>
+      <c r="BG30" s="3"/>
+      <c r="BH30" s="3"/>
+      <c r="BI30" s="3"/>
+      <c r="BJ30" s="3"/>
+      <c r="BK30" s="3"/>
+    </row>
+    <row r="31" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="4"/>
+      <c r="AH31" s="4"/>
+      <c r="AI31" s="4"/>
+      <c r="AJ31" s="4"/>
+      <c r="AK31" s="4"/>
+      <c r="AL31" s="4"/>
+      <c r="AM31" s="4"/>
+      <c r="AN31" s="4"/>
+      <c r="AO31" s="4"/>
+      <c r="AP31" s="4"/>
+      <c r="AQ31" s="4"/>
+      <c r="AR31" s="4"/>
+      <c r="AS31" s="4"/>
+      <c r="AT31" s="4"/>
+      <c r="AU31" s="4"/>
+      <c r="AV31" s="4"/>
+      <c r="AW31" s="4"/>
+      <c r="AX31" s="4"/>
+      <c r="AY31" s="4"/>
+      <c r="AZ31" s="4"/>
+      <c r="BA31" s="4"/>
+      <c r="BB31" s="4"/>
+      <c r="BC31" s="4"/>
+      <c r="BD31" s="4"/>
+      <c r="BE31" s="4"/>
+      <c r="BF31" s="4"/>
+      <c r="BG31" s="4"/>
+      <c r="BH31" s="4"/>
+      <c r="BI31" s="4"/>
+      <c r="BJ31" s="4"/>
+      <c r="BK31" s="4"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13 D13 AC23 B23 AA17 AC17 AA19 AC19 F21 D15 B19 D19 B21 D21 D23 AF15 AH15 B15">
